--- a/data/excel/itemRelationType.xlsx
+++ b/data/excel/itemRelationType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="list 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
   <si>
     <t>code</t>
   </si>
@@ -89,32 +89,344 @@
     <t>má část/i</t>
   </si>
   <si>
-    <t>je recenzován</t>
-  </si>
-  <si>
-    <t>recenzuje</t>
-  </si>
-  <si>
-    <t>je kompilací</t>
-  </si>
-  <si>
-    <t>kompiluje</t>
-  </si>
-  <si>
-    <t>má data</t>
-  </si>
-  <si>
     <t>pair</t>
   </si>
   <si>
-    <t>hasData</t>
+    <t>isReferencedBy</t>
+  </si>
+  <si>
+    <t>isCitedBy</t>
+  </si>
+  <si>
+    <t>isSupplementTo</t>
+  </si>
+  <si>
+    <t>isSupplementedBy</t>
+  </si>
+  <si>
+    <t>describes</t>
+  </si>
+  <si>
+    <t>isDescribedBy</t>
+  </si>
+  <si>
+    <t>isPublishedIn</t>
+  </si>
+  <si>
+    <t>je publikován v</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>cites</t>
+  </si>
+  <si>
+    <t>isRequiredBy</t>
+  </si>
+  <si>
+    <r>
+      <t>Cites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>IsCitedBy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> is specifically for when a publication/dataset directly cites another publication/dataset in its references</t>
+    </r>
+  </si>
+  <si>
+    <t>requires</t>
+  </si>
+  <si>
+    <t>hint_en</t>
+  </si>
+  <si>
+    <t>isContinuedBy</t>
+  </si>
+  <si>
+    <t>continues</t>
+  </si>
+  <si>
+    <t>hasMetadata</t>
+  </si>
+  <si>
+    <t>isMetadataFor</t>
+  </si>
+  <si>
+    <t>isNewVersionOf</t>
+  </si>
+  <si>
+    <t>isPreviousVersionOf</t>
+  </si>
+  <si>
+    <t>isDocumentedBy</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>isVariantFormOf</t>
+  </si>
+  <si>
+    <t>isOriginalFormOf</t>
+  </si>
+  <si>
+    <t>isIdenticalTo</t>
+  </si>
+  <si>
+    <t>isDerivedFrom</t>
+  </si>
+  <si>
+    <t>isSourceOf</t>
+  </si>
+  <si>
+    <t>obsoletes</t>
+  </si>
+  <si>
+    <t>isObsoletedBy</t>
+  </si>
+  <si>
+    <t>pokračuje (čím)</t>
+  </si>
+  <si>
+    <t>má metadata</t>
+  </si>
+  <si>
+    <t>is version of</t>
+  </si>
+  <si>
+    <t>has version</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>has part</t>
+  </si>
+  <si>
+    <t>is reviewed by</t>
+  </si>
+  <si>
+    <t>is compiled by</t>
+  </si>
+  <si>
+    <t>is referenced by</t>
+  </si>
+  <si>
+    <t>is cited by</t>
+  </si>
+  <si>
+    <t>is supplement to</t>
+  </si>
+  <si>
+    <t>is supplemented by</t>
+  </si>
+  <si>
+    <t>is described by</t>
+  </si>
+  <si>
+    <t>is published in</t>
+  </si>
+  <si>
+    <t>is required by</t>
+  </si>
+  <si>
+    <t>is continued by</t>
+  </si>
+  <si>
+    <t>has metadata</t>
+  </si>
+  <si>
+    <t>is metadata for</t>
+  </si>
+  <si>
+    <t>is new version of</t>
+  </si>
+  <si>
+    <t>is previous version of</t>
+  </si>
+  <si>
+    <t>is documented by</t>
+  </si>
+  <si>
+    <t>is variant form of</t>
+  </si>
+  <si>
+    <t>is original form of</t>
+  </si>
+  <si>
+    <t>is identical to</t>
+  </si>
+  <si>
+    <t>má doplněk</t>
+  </si>
+  <si>
+    <t>je recenzován (čím)</t>
+  </si>
+  <si>
+    <t>recenzuje (co)</t>
+  </si>
+  <si>
+    <t>kompiluje (co)</t>
+  </si>
+  <si>
+    <t>je na něj odkazováno z (čeho)</t>
+  </si>
+  <si>
+    <t>odkazuje (na co)</t>
+  </si>
+  <si>
+    <t>je citován (čím)</t>
+  </si>
+  <si>
+    <t>kompilován (čím)</t>
+  </si>
+  <si>
+    <t>cituje (co)</t>
+  </si>
+  <si>
+    <t>je doplňkem k (čemu)</t>
+  </si>
+  <si>
+    <t>popisuje (co)</t>
+  </si>
+  <si>
+    <t>je popsán (čím)</t>
+  </si>
+  <si>
+    <t>je požadován (čím)</t>
+  </si>
+  <si>
+    <t>požaduje (co)</t>
+  </si>
+  <si>
+    <t>je pokračováním (čeho)</t>
+  </si>
+  <si>
+    <t>je metadaty pro</t>
+  </si>
+  <si>
+    <t>is derived from</t>
+  </si>
+  <si>
+    <t>is source of</t>
+  </si>
+  <si>
+    <t>is obsoleted by</t>
+  </si>
+  <si>
+    <t>je novou verzí (čeho)</t>
+  </si>
+  <si>
+    <t>je předchozí verzí (čeho)</t>
+  </si>
+  <si>
+    <t>je zdokumentován (čím)</t>
+  </si>
+  <si>
+    <t>dokumentuje (co)</t>
+  </si>
+  <si>
+    <t>je variantou (čeho)</t>
+  </si>
+  <si>
+    <t>je původní variantou (čeho)</t>
+  </si>
+  <si>
+    <t>je identický s</t>
+  </si>
+  <si>
+    <t>je odvozen od (čeho)</t>
+  </si>
+  <si>
+    <t>je zdrojem odvozené verze</t>
+  </si>
+  <si>
+    <t>nahrazuje (co)</t>
+  </si>
+  <si>
+    <t>je nahrazen (čím)</t>
+  </si>
+  <si>
+    <t>Use for a different form of one thing. May be used for different software operating systems or compiler formats, for example.</t>
+  </si>
+  <si>
+    <t>IsIdenticalTo should be used for a resource that is the same as the registered resource but is saved on another location, maybe another institution.</t>
+  </si>
+  <si>
+    <t>IsDerivedFrom should be used for a resource that is a derivative of an original resource.</t>
+  </si>
+  <si>
+    <t>IsSourceOf is the original resource from which a derivative resource was created.</t>
+  </si>
+  <si>
+    <t>Use to indicate the relation to the work to which the resource is a supplement.</t>
+  </si>
+  <si>
+    <t>Use to indicate the relation to the work(s) which are supplements of the resource.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is continued by the work referenced by the related identifier.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a new edition of an old resource, where the new edition has been modified or updated.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a previous edition of a newer resource.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a portion of another resource.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a container of another resource</t>
+  </si>
+  <si>
+    <t>Use to indicate the work is documentation about/explaining the resource referenced by the related identifier.</t>
+  </si>
+  <si>
+    <t>Use to indicate the relation to the work which is documentation.</t>
+  </si>
+  <si>
+    <t>Use to indicate the relation to the works which are variant or different forms of the resource.</t>
+  </si>
+  <si>
+    <t>IsReferencedBy a References is for when a dataset/publication is used as a source of information without a direct citation</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a container of another resource.</t>
+  </si>
+  <si>
+    <t>Use to indicate the resource is a continuation of the work referenced by the related identifier.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,22 +447,14 @@
       <charset val="238"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,12 +483,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,17 +498,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Normální 2" xfId="2"/>
+    <cellStyle name="Normální 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,25 +785,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI20"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="44.90625" customWidth="1"/>
-    <col min="5" max="5" width="46.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="52.08984375" customWidth="1"/>
-    <col min="1022" max="1023" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="6" max="6" width="54.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="52.109375" customWidth="1"/>
+    <col min="1023" max="1024" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" ht="15.5">
+    <row r="1" spans="1:1024" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,20 +814,21 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1023" ht="15.5">
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:1024" ht="15.6">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1023">
-      <c r="D3" s="5"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:1024">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -542,9 +846,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:1023">
-      <c r="D4" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:1024">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -562,8 +866,9 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:1023" s="4" customFormat="1" ht="15.5">
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:1024" s="4" customFormat="1" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -574,12 +879,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G5"/>
-      <c r="H5" s="7"/>
+      <c r="H5"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -593,24 +902,29 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="AMH5"/>
+      <c r="V5" s="7"/>
       <c r="AMI5"/>
-    </row>
-    <row r="6" spans="1:1023" ht="15.5">
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1024" ht="20.399999999999999" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -624,22 +938,27 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:1023" ht="15.5">
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:1024">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -653,8 +972,9 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:1023">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:1024">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -665,10 +985,14 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -682,8 +1006,9 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:1023">
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:1024">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -694,9 +1019,14 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="F9" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -710,8 +1040,9 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:1023">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:1024">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -719,12 +1050,15 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="F10" s="9"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -738,8 +1072,9 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:1023">
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:1024">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -747,12 +1082,15 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="F11" s="9"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -766,8 +1104,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:1023">
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:1024">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -775,13 +1114,15 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="9"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -795,8 +1136,9 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:1023">
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:1024">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -804,12 +1146,15 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="F13" s="9"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -823,20 +1168,504 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:1023">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:1024">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="10"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
